--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:46:20+00:00</t>
+    <t>2023-02-18T10:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:13:11+00:00</t>
+    <t>2023-02-18T11:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:17:38+00:00</t>
+    <t>2023-02-18T14:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:27:51+00:00</t>
+    <t>2023-02-21T11:45:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:45:55+00:00</t>
+    <t>2023-02-21T13:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T13:35:57+00:00</t>
+    <t>2023-02-21T14:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Used by the observation to indicate that a HIV test was performed.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -348,27 +351,27 @@
         <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -390,7 +393,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -398,26 +401,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:10:21+00:00</t>
+    <t>2023-02-22T13:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T13:02:41+00:00</t>
+    <t>2023-02-22T15:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:15:41+00:00</t>
+    <t>2023-02-22T15:26:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:26:08+00:00</t>
+    <t>2023-02-22T15:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:39:39+00:00</t>
+    <t>2023-02-23T08:27:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:27:18+00:00</t>
+    <t>2023-02-23T13:59:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T13:59:47+00:00</t>
+    <t>2023-02-23T14:48:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T14:48:28+00:00</t>
+    <t>2023-02-24T11:38:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T11:38:09+00:00</t>
+    <t>2023-02-24T14:30:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:30:46+00:00</t>
+    <t>2023-02-27T07:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:31:33+00:00</t>
+    <t>2023-02-27T08:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:19:52+00:00</t>
+    <t>2023-02-27T11:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:03:37+00:00</t>
+    <t>2023-02-27T11:43:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:43:01+00:00</t>
+    <t>2023-02-28T11:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:30:20+00:00</t>
+    <t>2023-03-01T12:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:32:05+00:00</t>
+    <t>2023-03-01T13:09:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:09:29+00:00</t>
+    <t>2023-03-02T06:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:53+00:00</t>
+    <t>2023-03-02T07:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T07:03:01+00:00</t>
+    <t>2023-03-02T10:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T10:01:05+00:00</t>
+    <t>2023-03-02T11:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:57:08+00:00</t>
+    <t>2023-03-02T16:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:08:14+00:00</t>
+    <t>2023-03-03T12:35:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:35:01+00:00</t>
+    <t>2023-03-03T12:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:56:42+00:00</t>
+    <t>2023-03-03T14:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:58:49+00:00</t>
+    <t>2023-03-03T15:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:51:33+00:00</t>
+    <t>2023-03-04T08:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:23:50+00:00</t>
+    <t>2023-03-05T11:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:45:33+00:00</t>
+    <t>2023-03-06T07:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:25:44+00:00</t>
+    <t>2023-03-06T13:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:23:19+00:00</t>
+    <t>2023-03-06T13:58:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:58:50+00:00</t>
+    <t>2023-03-07T12:18:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:18:55+00:00</t>
+    <t>2023-03-07T17:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:18:24+00:00</t>
+    <t>2023-03-08T14:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:44:18+00:00</t>
+    <t>2023-03-08T15:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:59:39+00:00</t>
+    <t>2023-03-09T11:23:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/master/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T11:23:43+00:00</t>
+    <t>2023-04-04T11:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
